--- a/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Itgb3</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H2">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I2">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J2">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N2">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O2">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P2">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q2">
-        <v>13.81253759197137</v>
+        <v>18.2823485610675</v>
       </c>
       <c r="R2">
-        <v>13.81253759197137</v>
+        <v>73.12939424427</v>
       </c>
       <c r="S2">
-        <v>0.03111169101157409</v>
+        <v>0.03422039830656558</v>
       </c>
       <c r="T2">
-        <v>0.03111169101157409</v>
+        <v>0.02404483674698829</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H3">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I3">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J3">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N3">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O3">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P3">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q3">
-        <v>3.533591829859372</v>
+        <v>4.371202706745</v>
       </c>
       <c r="R3">
-        <v>3.533591829859372</v>
+        <v>26.22721624047</v>
       </c>
       <c r="S3">
-        <v>0.007959147002467417</v>
+        <v>0.008181897265764487</v>
       </c>
       <c r="T3">
-        <v>0.007959147002467417</v>
+        <v>0.008623469937732645</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H4">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I4">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J4">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N4">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O4">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P4">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q4">
-        <v>0.6889217963399269</v>
+        <v>0.8243191139400001</v>
       </c>
       <c r="R4">
-        <v>0.6889217963399269</v>
+        <v>4.94591468364</v>
       </c>
       <c r="S4">
-        <v>0.001551743980144876</v>
+        <v>0.001542937895343077</v>
       </c>
       <c r="T4">
-        <v>0.001551743980144876</v>
+        <v>0.001626209438237952</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H5">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I5">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J5">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N5">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O5">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P5">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q5">
-        <v>0.9789931922162545</v>
+        <v>1.1758578657</v>
       </c>
       <c r="R5">
-        <v>0.9789931922162545</v>
+        <v>7.055147194200002</v>
       </c>
       <c r="S5">
-        <v>0.002205107750538949</v>
+        <v>0.002200938483464327</v>
       </c>
       <c r="T5">
-        <v>0.002205107750538949</v>
+        <v>0.002319721970400479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H6">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I6">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J6">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N6">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O6">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P6">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q6">
-        <v>10.35990788131219</v>
+        <v>13.18032965011</v>
       </c>
       <c r="R6">
-        <v>10.35990788131219</v>
+        <v>79.08197790066002</v>
       </c>
       <c r="S6">
-        <v>0.02333490502853749</v>
+        <v>0.024670579325847</v>
       </c>
       <c r="T6">
-        <v>0.02333490502853749</v>
+        <v>0.02600203745567463</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.80734078584414</v>
+        <v>3.293535</v>
       </c>
       <c r="H7">
-        <v>2.80734078584414</v>
+        <v>6.587070000000001</v>
       </c>
       <c r="I7">
-        <v>0.0699729113025441</v>
+        <v>0.07458806695104117</v>
       </c>
       <c r="J7">
-        <v>0.0699729113025441</v>
+        <v>0.0652661766078026</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N7">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O7">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P7">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q7">
-        <v>1.691651549201501</v>
+        <v>2.014836503925</v>
       </c>
       <c r="R7">
-        <v>1.691651549201501</v>
+        <v>8.059346015700001</v>
       </c>
       <c r="S7">
-        <v>0.00381031652928129</v>
+        <v>0.003771315674056688</v>
       </c>
       <c r="T7">
-        <v>0.00381031652928129</v>
+        <v>0.002649901058768595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H8">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I8">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J8">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N8">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O8">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P8">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q8">
-        <v>19.09763809473362</v>
+        <v>24.10125083555367</v>
       </c>
       <c r="R8">
-        <v>19.09763809473362</v>
+        <v>144.607505013322</v>
       </c>
       <c r="S8">
-        <v>0.04301597816461895</v>
+        <v>0.04511205989341097</v>
       </c>
       <c r="T8">
-        <v>0.04301597816461895</v>
+        <v>0.04754673392781536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H9">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I9">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J9">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N9">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O9">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P9">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q9">
-        <v>4.885652436550611</v>
+        <v>5.762468237404666</v>
       </c>
       <c r="R9">
-        <v>4.885652436550611</v>
+        <v>51.862214136642</v>
       </c>
       <c r="S9">
-        <v>0.01100456074662618</v>
+        <v>0.01078602990497882</v>
       </c>
       <c r="T9">
-        <v>0.01100456074662618</v>
+        <v>0.01705221935912062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H10">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I10">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J10">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N10">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O10">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P10">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q10">
-        <v>0.9525244043296702</v>
+        <v>1.086683238056</v>
       </c>
       <c r="R10">
-        <v>0.9525244043296702</v>
+        <v>9.780149142503999</v>
       </c>
       <c r="S10">
-        <v>0.002145488817761748</v>
+        <v>0.002034023862696415</v>
       </c>
       <c r="T10">
-        <v>0.002145488817761748</v>
+        <v>0.003215698583625723</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H11">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I11">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J11">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N11">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O11">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P11">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q11">
-        <v>1.353586012538453</v>
+        <v>1.550109674013334</v>
       </c>
       <c r="R11">
-        <v>1.353586012538453</v>
+        <v>13.95098706612</v>
       </c>
       <c r="S11">
-        <v>0.003048849604880938</v>
+        <v>0.002901452747518315</v>
       </c>
       <c r="T11">
-        <v>0.003048849604880938</v>
+        <v>0.004587063928681241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H12">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I12">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J12">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N12">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O12">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P12">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q12">
-        <v>14.32392636723611</v>
+        <v>17.37536235738623</v>
       </c>
       <c r="R12">
-        <v>14.32392636723611</v>
+        <v>156.378261216476</v>
       </c>
       <c r="S12">
-        <v>0.03226355535633228</v>
+        <v>0.03252272642131187</v>
       </c>
       <c r="T12">
-        <v>0.03226355535633228</v>
+        <v>0.05141694117099397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.88151546952529</v>
+        <v>4.341800666666667</v>
       </c>
       <c r="H13">
-        <v>3.88151546952529</v>
+        <v>13.025402</v>
       </c>
       <c r="I13">
-        <v>0.09674669318312853</v>
+        <v>0.09832794210883093</v>
       </c>
       <c r="J13">
-        <v>0.09674669318312853</v>
+        <v>0.1290586235336235</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N13">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O13">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P13">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q13">
-        <v>2.338929313598692</v>
+        <v>2.656118266836667</v>
       </c>
       <c r="R13">
-        <v>2.338929313598692</v>
+        <v>15.93670960102</v>
       </c>
       <c r="S13">
-        <v>0.005268260492908449</v>
+        <v>0.004971649278914534</v>
       </c>
       <c r="T13">
-        <v>0.005268260492908449</v>
+        <v>0.005239966563386538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H14">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I14">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J14">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N14">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O14">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P14">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q14">
-        <v>27.88929625728772</v>
+        <v>0.5617222200633334</v>
       </c>
       <c r="R14">
-        <v>27.88929625728772</v>
+        <v>3.37033332038</v>
       </c>
       <c r="S14">
-        <v>0.06281851990696712</v>
+        <v>0.00105141623593972</v>
       </c>
       <c r="T14">
-        <v>0.06281851990696712</v>
+        <v>0.00110816061460569</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H15">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I15">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J15">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N15">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O15">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P15">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q15">
-        <v>7.134778004337301</v>
+        <v>0.1343045003533333</v>
       </c>
       <c r="R15">
-        <v>7.134778004337301</v>
+        <v>1.20874050318</v>
       </c>
       <c r="S15">
-        <v>0.01607054512822769</v>
+        <v>0.0002513874779875102</v>
       </c>
       <c r="T15">
-        <v>0.01607054512822769</v>
+        <v>0.0003974320910050866</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H16">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I16">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J16">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N16">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O16">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P16">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q16">
-        <v>1.39102202968085</v>
+        <v>0.02532707224</v>
       </c>
       <c r="R16">
-        <v>1.39102202968085</v>
+        <v>0.22794365016</v>
       </c>
       <c r="S16">
-        <v>0.003133171387919213</v>
+        <v>4.740651875753067E-05</v>
       </c>
       <c r="T16">
-        <v>0.003133171387919213</v>
+        <v>7.494753528659592E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>27</v>
@@ -1470,49 +1470,49 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H17">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I17">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J17">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N17">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O17">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P17">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q17">
-        <v>1.976713619042546</v>
+        <v>0.03612804386666667</v>
       </c>
       <c r="R17">
-        <v>1.976713619042546</v>
+        <v>0.3251523948000001</v>
       </c>
       <c r="S17">
-        <v>0.004452397173548234</v>
+        <v>6.762348103280116E-05</v>
       </c>
       <c r="T17">
-        <v>0.004452397173548234</v>
+        <v>0.0001069096268559735</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H18">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I18">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J18">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N18">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O18">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P18">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q18">
-        <v>20.91799122183517</v>
+        <v>0.4049635093377779</v>
       </c>
       <c r="R18">
-        <v>20.91799122183517</v>
+        <v>3.644671584040001</v>
       </c>
       <c r="S18">
-        <v>0.04711618521529552</v>
+        <v>0.0007579995831976516</v>
       </c>
       <c r="T18">
-        <v>0.04711618521529552</v>
+        <v>0.00119836263024284</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>5.66838340531167</v>
+        <v>0.1011933333333333</v>
       </c>
       <c r="H19">
-        <v>5.66838340531167</v>
+        <v>0.30358</v>
       </c>
       <c r="I19">
-        <v>0.1412843397027848</v>
+        <v>0.002291706364640331</v>
       </c>
       <c r="J19">
-        <v>0.1412843397027848</v>
+        <v>0.003007939173956966</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.602581474159304</v>
+        <v>0.611755</v>
       </c>
       <c r="N19">
-        <v>0.602581474159304</v>
+        <v>1.22351</v>
       </c>
       <c r="O19">
-        <v>0.0544541660244277</v>
+        <v>0.05056191731758031</v>
       </c>
       <c r="P19">
-        <v>0.0544541660244277</v>
+        <v>0.04060144467619692</v>
       </c>
       <c r="Q19">
-        <v>3.415662828472842</v>
+        <v>0.06190552763333335</v>
       </c>
       <c r="R19">
-        <v>3.415662828472842</v>
+        <v>0.3714331658000001</v>
       </c>
       <c r="S19">
-        <v>0.007693520890827088</v>
+        <v>0.000115873067725117</v>
       </c>
       <c r="T19">
-        <v>0.007693520890827088</v>
+        <v>0.0001221266759607792</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H20">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I20">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J20">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.92014993748544</v>
+        <v>5.5509805</v>
       </c>
       <c r="N20">
-        <v>4.92014993748544</v>
+        <v>11.101961</v>
       </c>
       <c r="O20">
-        <v>0.444624790257125</v>
+        <v>0.4587918645086687</v>
       </c>
       <c r="P20">
-        <v>0.444624790257125</v>
+        <v>0.3684119094562331</v>
       </c>
       <c r="Q20">
-        <v>136.5988831458743</v>
+        <v>45.3548246203585</v>
       </c>
       <c r="R20">
-        <v>136.5988831458743</v>
+        <v>272.128947722151</v>
       </c>
       <c r="S20">
-        <v>0.3076786011739648</v>
+        <v>0.08489391603320744</v>
       </c>
       <c r="T20">
-        <v>0.3076786011739648</v>
+        <v>0.08947559582201144</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H21">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I21">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J21">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>1.25869714417192</v>
+        <v>1.327207</v>
       </c>
       <c r="N21">
-        <v>1.25869714417192</v>
+        <v>3.981621</v>
       </c>
       <c r="O21">
-        <v>0.1137461176662237</v>
+        <v>0.1096944538210784</v>
       </c>
       <c r="P21">
-        <v>0.1137461176662237</v>
+        <v>0.1321277020646205</v>
       </c>
       <c r="Q21">
-        <v>34.9454033509918</v>
+        <v>10.844073532579</v>
       </c>
       <c r="R21">
-        <v>34.9454033509918</v>
+        <v>97.596661793211</v>
       </c>
       <c r="S21">
-        <v>0.07871186478890242</v>
+        <v>0.02029763923989377</v>
       </c>
       <c r="T21">
-        <v>0.07871186478890242</v>
+        <v>0.03208963815603685</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H22">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I22">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J22">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.245400130904583</v>
+        <v>0.250284</v>
       </c>
       <c r="N22">
-        <v>0.245400130904583</v>
+        <v>0.750852</v>
       </c>
       <c r="O22">
-        <v>0.02217635298087786</v>
+        <v>0.02068612257180288</v>
       </c>
       <c r="P22">
-        <v>0.02217635298087786</v>
+        <v>0.02491657276034671</v>
       </c>
       <c r="Q22">
-        <v>6.813081762006077</v>
+        <v>2.044969699548</v>
       </c>
       <c r="R22">
-        <v>6.813081762006077</v>
+        <v>18.404727295932</v>
       </c>
       <c r="S22">
-        <v>0.01534594879505202</v>
+        <v>0.00382771816266609</v>
       </c>
       <c r="T22">
-        <v>0.01534594879505202</v>
+        <v>0.006051447133902644</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
         <v>27</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H23">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I23">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J23">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.348726167180263</v>
+        <v>0.3570200000000001</v>
       </c>
       <c r="N23">
-        <v>0.348726167180263</v>
+        <v>1.07106</v>
       </c>
       <c r="O23">
-        <v>0.03151373452227327</v>
+        <v>0.02950791692870925</v>
       </c>
       <c r="P23">
-        <v>0.03151373452227327</v>
+        <v>0.03554248296694548</v>
       </c>
       <c r="Q23">
-        <v>9.681738476634857</v>
+        <v>2.917066540940001</v>
       </c>
       <c r="R23">
-        <v>9.681738476634857</v>
+        <v>26.25359886846001</v>
       </c>
       <c r="S23">
-        <v>0.02180737999330514</v>
+        <v>0.005460085097069919</v>
       </c>
       <c r="T23">
-        <v>0.02180737999330514</v>
+        <v>0.008632144506823937</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>27.763154554531</v>
+        <v>8.170597000000001</v>
       </c>
       <c r="H24">
-        <v>27.763154554531</v>
+        <v>24.511791</v>
       </c>
       <c r="I24">
-        <v>0.6919960558115424</v>
+        <v>0.1850379716826984</v>
       </c>
       <c r="J24">
-        <v>0.6919960558115424</v>
+        <v>0.2428683588271487</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.69029222727481</v>
+        <v>4.001879333333334</v>
       </c>
       <c r="N24">
-        <v>3.69029222727481</v>
+        <v>12.005638</v>
       </c>
       <c r="O24">
-        <v>0.3334848385490725</v>
+        <v>0.3307577248521605</v>
       </c>
       <c r="P24">
-        <v>0.3334848385490725</v>
+        <v>0.3983998880756572</v>
       </c>
       <c r="Q24">
-        <v>102.454153457215</v>
+        <v>32.69774327529534</v>
       </c>
       <c r="R24">
-        <v>102.454153457215</v>
+        <v>294.2796894776581</v>
       </c>
       <c r="S24">
-        <v>0.2307701929489072</v>
+        <v>0.06120273852502783</v>
       </c>
       <c r="T24">
-        <v>0.2307701929489072</v>
+        <v>0.0967587269738546</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>8.170597000000001</v>
+      </c>
+      <c r="H25">
+        <v>24.511791</v>
+      </c>
+      <c r="I25">
+        <v>0.1850379716826984</v>
+      </c>
+      <c r="J25">
+        <v>0.2428683588271487</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.611755</v>
+      </c>
+      <c r="N25">
+        <v>1.22351</v>
+      </c>
+      <c r="O25">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P25">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q25">
+        <v>4.998403567735001</v>
+      </c>
+      <c r="R25">
+        <v>29.99042140641</v>
+      </c>
+      <c r="S25">
+        <v>0.009355874624833366</v>
+      </c>
+      <c r="T25">
+        <v>0.00986080623451922</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>28.2492</v>
+      </c>
+      <c r="H26">
+        <v>56.4984</v>
+      </c>
+      <c r="I26">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J26">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.5509805</v>
+      </c>
+      <c r="N26">
+        <v>11.101961</v>
+      </c>
+      <c r="O26">
+        <v>0.4587918645086687</v>
+      </c>
+      <c r="P26">
+        <v>0.3684119094562331</v>
+      </c>
+      <c r="Q26">
+        <v>156.8107583406</v>
+      </c>
+      <c r="R26">
+        <v>627.2430333624</v>
+      </c>
+      <c r="S26">
+        <v>0.2935140740395449</v>
+      </c>
+      <c r="T26">
+        <v>0.2062365823448123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>28.2492</v>
+      </c>
+      <c r="H27">
+        <v>56.4984</v>
+      </c>
+      <c r="I27">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J27">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.327207</v>
+      </c>
+      <c r="N27">
+        <v>3.981621</v>
+      </c>
+      <c r="O27">
+        <v>0.1096944538210784</v>
+      </c>
+      <c r="P27">
+        <v>0.1321277020646205</v>
+      </c>
+      <c r="Q27">
+        <v>37.4925359844</v>
+      </c>
+      <c r="R27">
+        <v>224.9552159064</v>
+      </c>
+      <c r="S27">
+        <v>0.07017749993245377</v>
+      </c>
+      <c r="T27">
+        <v>0.0739649425207253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>28.2492</v>
+      </c>
+      <c r="H28">
+        <v>56.4984</v>
+      </c>
+      <c r="I28">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J28">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>0.250284</v>
+      </c>
+      <c r="N28">
+        <v>0.750852</v>
+      </c>
+      <c r="O28">
+        <v>0.02068612257180288</v>
+      </c>
+      <c r="P28">
+        <v>0.02491657276034671</v>
+      </c>
+      <c r="Q28">
+        <v>7.070322772800001</v>
+      </c>
+      <c r="R28">
+        <v>42.4219366368</v>
+      </c>
+      <c r="S28">
+        <v>0.01323403613233977</v>
+      </c>
+      <c r="T28">
+        <v>0.0139482700692938</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>28.2492</v>
+      </c>
+      <c r="H29">
+        <v>56.4984</v>
+      </c>
+      <c r="I29">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J29">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>0.3570200000000001</v>
+      </c>
+      <c r="N29">
+        <v>1.07106</v>
+      </c>
+      <c r="O29">
+        <v>0.02950791692870925</v>
+      </c>
+      <c r="P29">
+        <v>0.03554248296694548</v>
+      </c>
+      <c r="Q29">
+        <v>10.085529384</v>
+      </c>
+      <c r="R29">
+        <v>60.51317630400001</v>
+      </c>
+      <c r="S29">
+        <v>0.01887781711962388</v>
+      </c>
+      <c r="T29">
+        <v>0.01989664293418385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>27.763154554531</v>
-      </c>
-      <c r="H25">
-        <v>27.763154554531</v>
-      </c>
-      <c r="I25">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="J25">
-        <v>0.6919960558115424</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="N25">
-        <v>0.602581474159304</v>
-      </c>
-      <c r="O25">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="P25">
-        <v>0.0544541660244277</v>
-      </c>
-      <c r="Q25">
-        <v>16.72956259878188</v>
-      </c>
-      <c r="R25">
-        <v>16.72956259878188</v>
-      </c>
-      <c r="S25">
-        <v>0.03768206811141087</v>
-      </c>
-      <c r="T25">
-        <v>0.03768206811141087</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>28.2492</v>
+      </c>
+      <c r="H30">
+        <v>56.4984</v>
+      </c>
+      <c r="I30">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J30">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>4.001879333333334</v>
+      </c>
+      <c r="N30">
+        <v>12.005638</v>
+      </c>
+      <c r="O30">
+        <v>0.3307577248521605</v>
+      </c>
+      <c r="P30">
+        <v>0.3983998880756572</v>
+      </c>
+      <c r="Q30">
+        <v>113.0498896632</v>
+      </c>
+      <c r="R30">
+        <v>678.2993379792001</v>
+      </c>
+      <c r="S30">
+        <v>0.2116036809967761</v>
+      </c>
+      <c r="T30">
+        <v>0.2230238198448912</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>28.2492</v>
+      </c>
+      <c r="H31">
+        <v>56.4984</v>
+      </c>
+      <c r="I31">
+        <v>0.6397543128927891</v>
+      </c>
+      <c r="J31">
+        <v>0.5597989018574684</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.611755</v>
+      </c>
+      <c r="N31">
+        <v>1.22351</v>
+      </c>
+      <c r="O31">
+        <v>0.05056191731758031</v>
+      </c>
+      <c r="P31">
+        <v>0.04060144467619692</v>
+      </c>
+      <c r="Q31">
+        <v>17.281589346</v>
+      </c>
+      <c r="R31">
+        <v>69.12635738400002</v>
+      </c>
+      <c r="S31">
+        <v>0.03234720467205061</v>
+      </c>
+      <c r="T31">
+        <v>0.02272864414356179</v>
       </c>
     </row>
   </sheetData>
